--- a/excel_files/8.8.1.xlsx
+++ b/excel_files/8.8.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="48">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -314,7 +314,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -386,6 +386,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -395,9 +398,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -708,9 +709,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Q69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -721,7 +724,7 @@
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -743,8 +746,8 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="22.5">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:17" ht="22.5">
+      <c r="A2" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -765,7 +768,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="B3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -779,14 +782,14 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -804,11 +807,12 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="12">
         <v>2007</v>
       </c>
@@ -848,8 +852,11 @@
       <c r="P5" s="12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="18" customFormat="1">
+      <c r="Q5" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="18" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -898,8 +905,11 @@
       <c r="P6" s="17">
         <v>21.813169288524072</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="17">
+        <v>31.006658076398921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -948,8 +958,11 @@
       <c r="P7" s="14">
         <v>12.801350715491711</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="14">
+        <v>12.361070398061784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -998,8 +1011,11 @@
       <c r="P8" s="14">
         <v>31.967564617363848</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1">
+      <c r="Q8" s="14">
+        <v>51.674124182315701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="P9" s="14">
         <v>16.981772897090455</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" customFormat="1">
+      <c r="Q9" s="14">
+        <v>57.671710652788846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1084,8 +1103,11 @@
       <c r="P10" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" customFormat="1">
+      <c r="Q10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="P11" s="14">
         <v>38.444287819568139</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="Q11" s="14">
+        <v>126.84989429175475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -1184,8 +1209,11 @@
       <c r="P12" s="14">
         <v>14.313970435144702</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" customFormat="1">
+      <c r="Q12" s="14">
+        <v>17.213983050847457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1234,8 +1262,11 @@
       <c r="P13" s="14">
         <v>12.497812882745519</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" customFormat="1">
+      <c r="Q13" s="14">
+        <v>2.4194328849317719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1284,8 +1315,11 @@
       <c r="P14" s="14">
         <v>16.286202871800441</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1">
+      <c r="Q14" s="14">
+        <v>35.1000351000351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1334,8 +1368,11 @@
       <c r="P15" s="14">
         <v>7.9047217537942664</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" customFormat="1">
+      <c r="Q15" s="14">
+        <v>12.597949053894027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1382,8 +1419,11 @@
       <c r="P16" s="14">
         <v>4.8376953219486243</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" customFormat="1">
+      <c r="Q16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1432,8 +1472,11 @@
       <c r="P17" s="14">
         <v>11.57340431687981</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1">
+      <c r="Q17" s="14">
+        <v>27.592296230892337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -1482,8 +1525,11 @@
       <c r="P18" s="14">
         <v>7.6958596275203943</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" customFormat="1">
+      <c r="Q18" s="14">
+        <v>34.258307639602606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1532,8 +1578,11 @@
       <c r="P19" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" customFormat="1">
+      <c r="Q19" s="14">
+        <v>6.7934782608695654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1582,8 +1631,11 @@
       <c r="P20" s="14">
         <v>17.711654268508678</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1">
+      <c r="Q20" s="14">
+        <v>69.258072894121725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
@@ -1632,8 +1684,11 @@
       <c r="P21" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" customFormat="1">
+      <c r="Q21" s="14">
+        <v>6.4160143718721923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1682,8 +1737,11 @@
       <c r="P22" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" customFormat="1">
+      <c r="Q22" s="14">
+        <v>3.713882492757929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1732,8 +1790,11 @@
       <c r="P23" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1">
+      <c r="Q23" s="14">
+        <v>10.084711577248891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -1782,8 +1843,11 @@
       <c r="P24" s="14">
         <v>9.2824654228162995</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" customFormat="1">
+      <c r="Q24" s="14">
+        <v>14.186409419775854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1832,8 +1896,11 @@
       <c r="P25" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" customFormat="1">
+      <c r="Q25" s="14">
+        <v>8.8558271342543389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1882,8 +1949,11 @@
       <c r="P26" s="14">
         <v>20.620682544592228</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="2" customFormat="1">
+      <c r="Q26" s="14">
+        <v>20.294266869609334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>23</v>
       </c>
@@ -1932,8 +2002,11 @@
       <c r="P27" s="14">
         <v>26.166728235438985</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" customFormat="1">
+      <c r="Q27" s="14">
+        <v>30.25764383727439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -1982,8 +2055,11 @@
       <c r="P28" s="14">
         <v>18.453021682300477</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" customFormat="1">
+      <c r="Q28" s="14">
+        <v>6.0340926233217687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2032,8 +2108,11 @@
       <c r="P29" s="14">
         <v>33.895171478753888</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1">
+      <c r="Q29" s="14">
+        <v>54.621593736723923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1">
       <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
@@ -2082,8 +2161,11 @@
       <c r="P30" s="14">
         <v>37.950088044204264</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" customFormat="1">
+      <c r="Q30" s="14">
+        <v>42.637786672493831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -2132,8 +2214,11 @@
       <c r="P31" s="14">
         <v>24.386199362057024</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" customFormat="1">
+      <c r="Q31" s="14">
+        <v>28.650254668930391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2182,8 +2267,11 @@
       <c r="P32" s="14">
         <v>52.570154871676252</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1">
+      <c r="Q32" s="14">
+        <v>56.75308126398749</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
@@ -2232,8 +2320,11 @@
       <c r="P33" s="14">
         <v>7.7055454241902757</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" customFormat="1">
+      <c r="Q33" s="14">
+        <v>33.273611466598418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2282,8 +2373,11 @@
       <c r="P34" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" customFormat="1" ht="15.75" thickBot="1">
+      <c r="Q34" s="14">
+        <v>9.9671085418120189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -2332,38 +2426,42 @@
       <c r="P35" s="15">
         <v>15.828628713132487</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="28" t="s">
+      <c r="Q35" s="15">
+        <v>57.882551041885925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="24">
         <v>2007</v>
       </c>
@@ -2403,8 +2501,11 @@
       <c r="P39" s="24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" s="2" customFormat="1">
+      <c r="Q39" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="2" customFormat="1">
       <c r="A40" s="19" t="s">
         <v>11</v>
       </c>
@@ -2453,8 +2554,11 @@
       <c r="P40" s="25">
         <v>2.9328630976166821</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" s="2" customFormat="1">
+      <c r="Q40" s="25">
+        <v>2.0423547235951385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
@@ -2503,8 +2607,11 @@
       <c r="P41" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41" s="14">
+        <v>0.35317343994462241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
@@ -2553,8 +2660,11 @@
       <c r="P42" s="14">
         <v>6.2375735838758724</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42" s="14">
+        <v>3.9147063774481596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="22" t="s">
         <v>13</v>
       </c>
@@ -2603,8 +2713,11 @@
       <c r="P43" s="14">
         <v>14.151477414242047</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43" s="14">
+        <v>8.2388158075412612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="4" t="s">
         <v>34</v>
       </c>
@@ -2653,8 +2766,11 @@
       <c r="P44" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
@@ -2703,8 +2819,11 @@
       <c r="P45" s="14">
         <v>32.036906516306786</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45" s="14">
+        <v>18.12141347025068</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="22" t="s">
         <v>15</v>
       </c>
@@ -2753,8 +2872,11 @@
       <c r="P46" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46" s="14">
+        <v>2.6483050847457625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -2803,8 +2925,11 @@
       <c r="P47" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
@@ -2853,8 +2978,11 @@
       <c r="P48" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="14">
+        <v>5.85000585000585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -2901,8 +3029,11 @@
       <c r="P49" s="14">
         <v>7.9047217537942664</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="14">
+        <v>5.0391796215576106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="4" t="s">
         <v>34</v>
       </c>
@@ -2951,8 +3082,11 @@
       <c r="P50" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
@@ -3001,8 +3135,11 @@
       <c r="P51" s="14">
         <v>17.360106475319714</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="14">
+        <v>11.036918492356934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="22" t="s">
         <v>17</v>
       </c>
@@ -3051,8 +3188,11 @@
       <c r="P52" s="14">
         <v>7.6958596275203943</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>34</v>
       </c>
@@ -3101,8 +3241,11 @@
       <c r="P53" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3151,8 +3294,11 @@
       <c r="P54" s="14">
         <v>17.711654268508678</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="22" t="s">
         <v>19</v>
       </c>
@@ -3201,8 +3347,11 @@
       <c r="P55" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -3251,8 +3400,11 @@
       <c r="P56" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -3301,8 +3453,11 @@
       <c r="P57" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
@@ -3351,8 +3506,11 @@
       <c r="P58" s="14">
         <v>4.6412327114081497</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
@@ -3401,8 +3559,11 @@
       <c r="P59" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="P60" s="14">
         <v>10.310341272296114</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="22" t="s">
         <v>23</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="P61" s="14">
         <v>1.5392193079669989</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61" s="14">
+        <v>3.0257643837274388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="4" t="s">
         <v>34</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="P62" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62" s="14">
+        <v>3.0170463116608843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>31</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="P63" s="14">
         <v>3.0813792253412626</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63" s="14">
+        <v>3.0345329853735512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="22" t="s">
         <v>25</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="P64" s="14">
         <v>2.0240046956908944</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64" s="14">
+        <v>1.0659446668123458</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="4" t="s">
         <v>34</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="P65" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="P66" s="14">
         <v>4.2056123897341005</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66" s="14">
+        <v>2.1416257080749999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="22" t="s">
         <v>27</v>
       </c>
@@ -3801,8 +3983,11 @@
       <c r="P67" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="4" t="s">
         <v>34</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="P68" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" thickBot="1">
+      <c r="Q68" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>31</v>
       </c>
@@ -3899,6 +4087,9 @@
         <v>5.567308762943993</v>
       </c>
       <c r="P69" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q69" s="13" t="s">
         <v>41</v>
       </c>
     </row>

--- a/excel_files/8.8.1.xlsx
+++ b/excel_files/8.8.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="48">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +261,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +321,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -389,6 +396,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,7 +406,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -709,10 +720,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q69"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,7 +735,7 @@
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -746,7 +757,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5">
+    <row r="2" spans="1:18" ht="22.5">
       <c r="A2" s="27" t="s">
         <v>47</v>
       </c>
@@ -768,7 +779,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="B3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -782,14 +793,14 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -808,11 +819,12 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="12">
         <v>2007</v>
       </c>
@@ -855,8 +867,11 @@
       <c r="Q5" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="18" customFormat="1">
+      <c r="R5" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="18" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -908,8 +923,11 @@
       <c r="Q6" s="17">
         <v>31.006658076398921</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="17">
+        <v>38.017017320327248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -961,8 +979,11 @@
       <c r="Q7" s="14">
         <v>12.361070398061784</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="14">
+        <v>8.1977730571277849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1014,8 +1035,11 @@
       <c r="Q8" s="14">
         <v>51.674124182315701</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1">
+      <c r="R8" s="14">
+        <v>71.378156689010552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
@@ -1067,8 +1091,11 @@
       <c r="Q9" s="14">
         <v>57.671710652788846</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" customFormat="1">
+      <c r="R9" s="14">
+        <v>69.179257291493713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1106,8 +1133,11 @@
       <c r="Q10" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" customFormat="1">
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="Q11" s="14">
         <v>126.84989429175475</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="R11" s="14">
+        <v>153.09246785058176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -1212,8 +1245,11 @@
       <c r="Q12" s="14">
         <v>17.213983050847457</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" customFormat="1">
+      <c r="R12" s="14">
+        <v>6.1947889435406935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1265,8 +1301,11 @@
       <c r="Q13" s="14">
         <v>2.4194328849317719</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" customFormat="1">
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1318,8 +1357,11 @@
       <c r="Q14" s="14">
         <v>35.1000351000351</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1">
+      <c r="R14" s="14">
+        <v>14.048890137679123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1371,8 +1413,11 @@
       <c r="Q15" s="14">
         <v>12.597949053894027</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" customFormat="1">
+      <c r="R15" s="14">
+        <v>2.5367190076355244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1422,8 +1467,11 @@
       <c r="Q16" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" customFormat="1">
+      <c r="R16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1475,8 +1523,11 @@
       <c r="Q17" s="14">
         <v>27.592296230892337</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1">
+      <c r="R17" s="14">
+        <v>5.6110425317023909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -1528,8 +1579,11 @@
       <c r="Q18" s="14">
         <v>34.258307639602606</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" customFormat="1">
+      <c r="R18" s="14">
+        <v>22.848438690022849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1581,8 +1635,11 @@
       <c r="Q19" s="14">
         <v>6.7934782608695654</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" customFormat="1">
+      <c r="R19" s="14">
+        <v>26.98327037236913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q20" s="14">
         <v>69.258072894121725</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1">
+      <c r="R20" s="14">
+        <v>17.488632388947185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
@@ -1687,8 +1747,11 @@
       <c r="Q21" s="14">
         <v>6.4160143718721923</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" customFormat="1">
+      <c r="R21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1740,8 +1803,11 @@
       <c r="Q22" s="14">
         <v>3.713882492757929</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" customFormat="1">
+      <c r="R22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1793,8 +1859,11 @@
       <c r="Q23" s="14">
         <v>10.084711577248891</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1">
+      <c r="R23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -1846,8 +1915,11 @@
       <c r="Q24" s="14">
         <v>14.186409419775854</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" customFormat="1">
+      <c r="R24" s="14">
+        <v>4.6451133407655147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1899,8 +1971,11 @@
       <c r="Q25" s="14">
         <v>8.8558271342543389</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" customFormat="1">
+      <c r="R25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -1952,8 +2027,11 @@
       <c r="Q26" s="14">
         <v>20.294266869609334</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1">
+      <c r="R26" s="14">
+        <v>9.5969289827255277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>23</v>
       </c>
@@ -2005,8 +2083,11 @@
       <c r="Q27" s="14">
         <v>30.25764383727439</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" customFormat="1">
+      <c r="R27" s="14">
+        <v>22.137537357094288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -2058,8 +2139,11 @@
       <c r="Q28" s="14">
         <v>6.0340926233217687</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" customFormat="1">
+      <c r="R28" s="14">
+        <v>3.1852205765249249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2111,8 +2195,11 @@
       <c r="Q29" s="14">
         <v>54.621593736723923</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1">
+      <c r="R29" s="14">
+        <v>40.821453243735476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1">
       <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
@@ -2164,8 +2251,11 @@
       <c r="Q30" s="14">
         <v>42.637786672493831</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" customFormat="1">
+      <c r="R30" s="14">
+        <v>84.992299355427534</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -2217,8 +2307,11 @@
       <c r="Q31" s="14">
         <v>28.650254668930391</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" customFormat="1">
+      <c r="R31" s="14">
+        <v>20.729207453301704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2270,8 +2363,11 @@
       <c r="Q32" s="14">
         <v>56.75308126398749</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1">
+      <c r="R32" s="14">
+        <v>148.0627514806275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
@@ -2323,8 +2419,11 @@
       <c r="Q33" s="14">
         <v>33.273611466598418</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" customFormat="1">
+      <c r="R33" s="14">
+        <v>2.5410377598211111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2376,8 +2475,11 @@
       <c r="Q34" s="14">
         <v>9.9671085418120189</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="R34" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -2429,39 +2531,45 @@
       <c r="Q35" s="15">
         <v>57.882551041885925</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="29" t="s">
+      <c r="R35" s="15">
+        <v>5.3157559004890489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1">
+      <c r="R37" s="32"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="31"/>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+    </row>
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="24">
         <v>2007</v>
       </c>
@@ -2504,8 +2612,11 @@
       <c r="Q39" s="24">
         <v>2020</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="2" customFormat="1">
+      <c r="R39" s="24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="2" customFormat="1">
       <c r="A40" s="19" t="s">
         <v>11</v>
       </c>
@@ -2557,8 +2668,11 @@
       <c r="Q40" s="25">
         <v>2.0423547235951385</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="2" customFormat="1">
+      <c r="R40" s="33">
+        <v>3.7640611208244801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="2" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
@@ -2610,8 +2724,11 @@
       <c r="Q41" s="14">
         <v>0.35317343994462241</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41" s="34">
+        <v>0.35642491552729505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
@@ -2663,8 +2780,11 @@
       <c r="Q42" s="14">
         <v>3.9147063774481596</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42" s="35">
+        <v>7.5764523859843607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="22" t="s">
         <v>13</v>
       </c>
@@ -2716,8 +2836,11 @@
       <c r="Q43" s="14">
         <v>8.2388158075412612</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43" s="35">
+        <v>8.3015108749792468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="4" t="s">
         <v>34</v>
       </c>
@@ -2769,8 +2892,11 @@
       <c r="Q44" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
@@ -2822,8 +2948,11 @@
       <c r="Q45" s="14">
         <v>18.12141347025068</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45" s="35">
+        <v>18.37109614206981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="22" t="s">
         <v>15</v>
       </c>
@@ -2875,8 +3004,11 @@
       <c r="Q46" s="14">
         <v>2.6483050847457625</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46" s="35">
+        <v>3.7168733661244162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -2928,8 +3060,11 @@
       <c r="Q47" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
@@ -2981,8 +3116,11 @@
       <c r="Q48" s="14">
         <v>5.85000585000585</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48" s="35">
+        <v>8.4293340826074736</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -3032,8 +3170,11 @@
       <c r="Q49" s="14">
         <v>5.0391796215576106</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49" s="35">
+        <v>5.0734380152710488</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="4" t="s">
         <v>34</v>
       </c>
@@ -3085,8 +3226,11 @@
       <c r="Q50" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
@@ -3138,8 +3282,11 @@
       <c r="Q51" s="14">
         <v>11.036918492356934</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="35">
+        <v>11.222085063404782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="22" t="s">
         <v>17</v>
       </c>
@@ -3191,8 +3338,11 @@
       <c r="Q52" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52" s="35">
+        <v>3.8080731150038076</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="4" t="s">
         <v>34</v>
       </c>
@@ -3244,8 +3394,11 @@
       <c r="Q53" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3297,8 +3450,11 @@
       <c r="Q54" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54" s="35">
+        <v>8.7443161944735923</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="22" t="s">
         <v>19</v>
       </c>
@@ -3350,8 +3506,11 @@
       <c r="Q55" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55" s="35">
+        <v>4.0505508749189891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -3403,8 +3562,11 @@
       <c r="Q56" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -3456,8 +3618,11 @@
       <c r="Q57" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57" s="35">
+        <v>9.9775505113494631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
@@ -3509,8 +3674,11 @@
       <c r="Q58" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58" s="35">
+        <v>9.2902266815310295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
@@ -3562,8 +3730,11 @@
       <c r="Q59" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59" s="35">
+        <v>9.0025207057976235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
@@ -3615,8 +3786,11 @@
       <c r="Q60" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60" s="35">
+        <v>9.5969289827255277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="22" t="s">
         <v>23</v>
       </c>
@@ -3668,8 +3842,11 @@
       <c r="Q61" s="14">
         <v>3.0257643837274388</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61" s="35">
+        <v>1.5812526683638779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="4" t="s">
         <v>34</v>
       </c>
@@ -3721,8 +3898,11 @@
       <c r="Q62" s="14">
         <v>3.0170463116608843</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="4" t="s">
         <v>31</v>
       </c>
@@ -3774,8 +3954,11 @@
       <c r="Q63" s="14">
         <v>3.0345329853735512</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63" s="35">
+        <v>3.1401117879796518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="22" t="s">
         <v>25</v>
       </c>
@@ -3827,8 +4010,11 @@
       <c r="Q64" s="14">
         <v>1.0659446668123458</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64" s="35">
+        <v>2.2816724659175174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="4" t="s">
         <v>34</v>
       </c>
@@ -3880,8 +4066,11 @@
       <c r="Q65" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
@@ -3933,8 +4122,11 @@
       <c r="Q66" s="14">
         <v>2.1416257080749999</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66" s="35">
+        <v>4.5210000452100001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="22" t="s">
         <v>27</v>
       </c>
@@ -3986,8 +4178,11 @@
       <c r="Q67" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67" s="35">
+        <v>5.0820755196422223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="4" t="s">
         <v>34</v>
       </c>
@@ -4039,8 +4234,11 @@
       <c r="Q68" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" thickBot="1">
+      <c r="R68" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15.75" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>31</v>
       </c>
@@ -4091,6 +4289,9 @@
       </c>
       <c r="Q69" s="13" t="s">
         <v>41</v>
+      </c>
+      <c r="R69" s="13">
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/8.8.1.xlsx
+++ b/excel_files/8.8.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="48">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -397,6 +397,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,10 +410,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -720,10 +723,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,7 +738,7 @@
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -757,7 +760,7 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="22.5">
+    <row r="2" spans="1:19" ht="22.5">
       <c r="A2" s="27" t="s">
         <v>47</v>
       </c>
@@ -779,7 +782,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="B3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -793,14 +796,14 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -820,11 +823,12 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="12">
         <v>2007</v>
       </c>
@@ -870,8 +874,11 @@
       <c r="R5" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="18" customFormat="1">
+      <c r="S5" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="18" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="R6" s="17">
         <v>38.017017320327248</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="17">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -982,8 +992,11 @@
       <c r="R7" s="14">
         <v>8.1977730571277849</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="14">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1038,8 +1051,11 @@
       <c r="R8" s="14">
         <v>71.378156689010552</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="2" customFormat="1">
+      <c r="S8" s="14">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1110,11 @@
       <c r="R9" s="14">
         <v>69.179257291493713</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" customFormat="1">
+      <c r="S9" s="14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1136,8 +1155,11 @@
       <c r="R10" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" customFormat="1">
+      <c r="S10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1192,8 +1214,11 @@
       <c r="R11" s="14">
         <v>153.09246785058176</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="S11" s="14">
+        <v>803.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -1248,8 +1273,11 @@
       <c r="R12" s="14">
         <v>6.1947889435406935</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" customFormat="1">
+      <c r="S12" s="14">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1304,8 +1332,11 @@
       <c r="R13" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" customFormat="1">
+      <c r="S13" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1360,8 +1391,11 @@
       <c r="R14" s="14">
         <v>14.048890137679123</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1">
+      <c r="S14" s="14">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1416,8 +1450,11 @@
       <c r="R15" s="14">
         <v>2.5367190076355244</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" customFormat="1">
+      <c r="S15" s="14">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1470,8 +1507,11 @@
       <c r="R16" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" customFormat="1">
+      <c r="S16" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1526,8 +1566,11 @@
       <c r="R17" s="14">
         <v>5.6110425317023909</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1">
+      <c r="S17" s="14">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="R18" s="14">
         <v>22.848438690022849</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" customFormat="1">
+      <c r="S18" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1638,8 +1684,11 @@
       <c r="R19" s="14">
         <v>26.98327037236913</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" customFormat="1">
+      <c r="S19" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1694,8 +1743,11 @@
       <c r="R20" s="14">
         <v>17.488632388947185</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" s="2" customFormat="1">
+      <c r="S20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
@@ -1750,8 +1802,11 @@
       <c r="R21" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" customFormat="1">
+      <c r="S21" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1806,8 +1861,11 @@
       <c r="R22" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" customFormat="1">
+      <c r="S22" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1862,8 +1920,11 @@
       <c r="R23" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1">
+      <c r="S23" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -1918,8 +1979,11 @@
       <c r="R24" s="14">
         <v>4.6451133407655147</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" customFormat="1">
+      <c r="S24" s="14">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1974,8 +2038,11 @@
       <c r="R25" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" customFormat="1">
+      <c r="S25" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2030,8 +2097,11 @@
       <c r="R26" s="14">
         <v>9.5969289827255277</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="2" customFormat="1">
+      <c r="S26" s="14">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>23</v>
       </c>
@@ -2086,8 +2156,11 @@
       <c r="R27" s="14">
         <v>22.137537357094288</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" customFormat="1">
+      <c r="S27" s="14">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -2142,8 +2215,11 @@
       <c r="R28" s="14">
         <v>3.1852205765249249</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" customFormat="1">
+      <c r="S28" s="14">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2198,8 +2274,11 @@
       <c r="R29" s="14">
         <v>40.821453243735476</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="2" customFormat="1">
+      <c r="S29" s="14">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1">
       <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
@@ -2254,8 +2333,11 @@
       <c r="R30" s="14">
         <v>84.992299355427534</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" customFormat="1">
+      <c r="S30" s="14">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -2310,8 +2392,11 @@
       <c r="R31" s="14">
         <v>20.729207453301704</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" customFormat="1">
+      <c r="S31" s="14">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2366,8 +2451,11 @@
       <c r="R32" s="14">
         <v>148.0627514806275</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" s="2" customFormat="1">
+      <c r="S32" s="14">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="2" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
@@ -2422,8 +2510,11 @@
       <c r="R33" s="14">
         <v>2.5410377598211111</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" customFormat="1">
+      <c r="S33" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2478,8 +2569,11 @@
       <c r="R34" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" customFormat="1" ht="15.75" thickBot="1">
+      <c r="S34" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -2534,42 +2628,48 @@
       <c r="R35" s="15">
         <v>5.3157559004890489</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1">
-      <c r="R37" s="32"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="30" t="s">
+      <c r="S35" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1">
+      <c r="Q37" s="28"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A38" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
-    </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="S38" s="28"/>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="24">
         <v>2007</v>
       </c>
@@ -2615,8 +2715,11 @@
       <c r="R39" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" s="2" customFormat="1">
+      <c r="S39" s="24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1">
       <c r="A40" s="19" t="s">
         <v>11</v>
       </c>
@@ -2668,11 +2771,14 @@
       <c r="Q40" s="25">
         <v>2.0423547235951385</v>
       </c>
-      <c r="R40" s="33">
+      <c r="R40" s="30">
         <v>3.7640611208244801</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" s="2" customFormat="1">
+      <c r="S40" s="30">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
@@ -2724,11 +2830,14 @@
       <c r="Q41" s="14">
         <v>0.35317343994462241</v>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="31">
         <v>0.35642491552729505</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
@@ -2780,11 +2889,14 @@
       <c r="Q42" s="14">
         <v>3.9147063774481596</v>
       </c>
-      <c r="R42" s="35">
+      <c r="R42" s="32">
         <v>7.5764523859843607</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="32">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="22" t="s">
         <v>13</v>
       </c>
@@ -2836,11 +2948,14 @@
       <c r="Q43" s="14">
         <v>8.2388158075412612</v>
       </c>
-      <c r="R43" s="35">
+      <c r="R43" s="32">
         <v>8.3015108749792468</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="32">
+        <v>119.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="4" t="s">
         <v>34</v>
       </c>
@@ -2895,8 +3010,11 @@
       <c r="R44" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
@@ -2948,11 +3066,14 @@
       <c r="Q45" s="14">
         <v>18.12141347025068</v>
       </c>
-      <c r="R45" s="35">
+      <c r="R45" s="32">
         <v>18.37109614206981</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" s="32">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="22" t="s">
         <v>15</v>
       </c>
@@ -3004,11 +3125,14 @@
       <c r="Q46" s="14">
         <v>2.6483050847457625</v>
       </c>
-      <c r="R46" s="35">
+      <c r="R46" s="32">
         <v>3.7168733661244162</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" s="32">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="4" t="s">
         <v>34</v>
       </c>
@@ -3063,8 +3187,11 @@
       <c r="R47" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
@@ -3116,11 +3243,14 @@
       <c r="Q48" s="14">
         <v>5.85000585000585</v>
       </c>
-      <c r="R48" s="35">
+      <c r="R48" s="32">
         <v>8.4293340826074736</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48" s="32">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="22" t="s">
         <v>16</v>
       </c>
@@ -3170,11 +3300,14 @@
       <c r="Q49" s="14">
         <v>5.0391796215576106</v>
       </c>
-      <c r="R49" s="35">
+      <c r="R49" s="32">
         <v>5.0734380152710488</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="4" t="s">
         <v>34</v>
       </c>
@@ -3229,8 +3362,11 @@
       <c r="R50" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
@@ -3282,11 +3418,14 @@
       <c r="Q51" s="14">
         <v>11.036918492356934</v>
       </c>
-      <c r="R51" s="35">
+      <c r="R51" s="32">
         <v>11.222085063404782</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="22" t="s">
         <v>17</v>
       </c>
@@ -3338,11 +3477,14 @@
       <c r="Q52" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R52" s="35">
+      <c r="R52" s="32">
         <v>3.8080731150038076</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="4" t="s">
         <v>34</v>
       </c>
@@ -3397,8 +3539,11 @@
       <c r="R53" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
@@ -3450,11 +3595,14 @@
       <c r="Q54" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R54" s="35">
+      <c r="R54" s="32">
         <v>8.7443161944735923</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="22" t="s">
         <v>19</v>
       </c>
@@ -3506,11 +3654,14 @@
       <c r="Q55" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R55" s="35">
+      <c r="R55" s="32">
         <v>4.0505508749189891</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -3565,8 +3716,11 @@
       <c r="R56" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -3618,11 +3772,14 @@
       <c r="Q57" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R57" s="35">
+      <c r="R57" s="32">
         <v>9.9775505113494631</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="22" t="s">
         <v>21</v>
       </c>
@@ -3674,11 +3831,14 @@
       <c r="Q58" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R58" s="35">
+      <c r="R58" s="32">
         <v>9.2902266815310295</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58" s="32">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
@@ -3730,11 +3890,14 @@
       <c r="Q59" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R59" s="35">
+      <c r="R59" s="32">
         <v>9.0025207057976235</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
@@ -3786,11 +3949,14 @@
       <c r="Q60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R60" s="35">
+      <c r="R60" s="32">
         <v>9.5969289827255277</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60" s="32">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="22" t="s">
         <v>23</v>
       </c>
@@ -3842,11 +4008,14 @@
       <c r="Q61" s="14">
         <v>3.0257643837274388</v>
       </c>
-      <c r="R61" s="35">
+      <c r="R61" s="32">
         <v>1.5812526683638779</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="4" t="s">
         <v>34</v>
       </c>
@@ -3898,11 +4067,14 @@
       <c r="Q62" s="14">
         <v>3.0170463116608843</v>
       </c>
-      <c r="R62" s="35">
+      <c r="R62" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="4" t="s">
         <v>31</v>
       </c>
@@ -3954,11 +4126,14 @@
       <c r="Q63" s="14">
         <v>3.0345329853735512</v>
       </c>
-      <c r="R63" s="35">
+      <c r="R63" s="32">
         <v>3.1401117879796518</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="22" t="s">
         <v>25</v>
       </c>
@@ -4010,11 +4185,14 @@
       <c r="Q64" s="14">
         <v>1.0659446668123458</v>
       </c>
-      <c r="R64" s="35">
+      <c r="R64" s="32">
         <v>2.2816724659175174</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64" s="32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="4" t="s">
         <v>34</v>
       </c>
@@ -4069,8 +4247,11 @@
       <c r="R65" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
@@ -4122,11 +4303,14 @@
       <c r="Q66" s="14">
         <v>2.1416257080749999</v>
       </c>
-      <c r="R66" s="35">
+      <c r="R66" s="32">
         <v>4.5210000452100001</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66" s="32">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="22" t="s">
         <v>27</v>
       </c>
@@ -4178,11 +4362,14 @@
       <c r="Q67" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="R67" s="35">
+      <c r="R67" s="32">
         <v>5.0820755196422223</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="4" t="s">
         <v>34</v>
       </c>
@@ -4237,8 +4424,11 @@
       <c r="R68" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" ht="15.75" thickBot="1">
+      <c r="S68" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>31</v>
       </c>
@@ -4292,6 +4482,9 @@
       </c>
       <c r="R69" s="13">
         <v>10.6</v>
+      </c>
+      <c r="S69" s="13">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/8.8.1.xlsx
+++ b/excel_files/8.8.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="48">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -167,7 +167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,12 +251,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Times New Roman CE"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -266,6 +260,19 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman CE"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -321,7 +328,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -384,10 +391,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -399,8 +403,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,7 +417,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -723,22 +746,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="38.5703125" style="3" customWidth="1"/>
+    <col min="1" max="3" width="38" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="15" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:20" s="6" customFormat="1" ht="48" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -760,14 +781,14 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="22.5">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:20" ht="22.5">
+      <c r="A2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="1"/>
@@ -782,7 +803,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="B3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -796,7 +817,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>38</v>
       </c>
@@ -824,8 +845,9 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="A5" s="35"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
@@ -877,8 +899,11 @@
       <c r="S5" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="18" customFormat="1">
+      <c r="T5" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="18" customFormat="1">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -936,8 +961,11 @@
       <c r="S6" s="17">
         <v>43.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" s="17">
+        <v>21.053924363776723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -995,8 +1023,11 @@
       <c r="S7" s="14">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="14">
+        <v>9.963239083382005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1054,8 +1085,11 @@
       <c r="S8" s="14">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+      <c r="T8" s="14">
+        <v>28.68463041646498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
@@ -1113,8 +1147,11 @@
       <c r="S9" s="14">
         <v>355</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" customFormat="1">
+      <c r="T9" s="14">
+        <v>5.5380184969817794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1158,8 +1195,11 @@
       <c r="S10" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" customFormat="1">
+      <c r="T10" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1217,8 +1257,11 @@
       <c r="S11" s="14">
         <v>803.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="T11" s="14">
+        <v>12.785271367384771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -1276,8 +1319,11 @@
       <c r="S12" s="14">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" customFormat="1">
+      <c r="T12" s="14">
+        <v>27.411597597747264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1335,8 +1381,11 @@
       <c r="S13" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" customFormat="1">
+      <c r="T13" s="14">
+        <v>2.1979954281695093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -1394,8 +1443,11 @@
       <c r="S14" s="14">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+      <c r="T14" s="14">
+        <v>60.410793395086586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1453,8 +1505,11 @@
       <c r="S15" s="14">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" customFormat="1">
+      <c r="T15" s="14">
+        <v>21.576524741081702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
@@ -1510,8 +1565,11 @@
       <c r="S16" s="14">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" customFormat="1">
+      <c r="T16" s="14">
+        <v>4.3817369205152925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1569,8 +1627,11 @@
       <c r="S17" s="14">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="2" customFormat="1">
+      <c r="T17" s="14">
+        <v>42.350449973530964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -1628,8 +1689,11 @@
       <c r="S18" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" customFormat="1">
+      <c r="T18" s="14">
+        <v>3.9264959949740854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1687,8 +1751,11 @@
       <c r="S19" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" customFormat="1">
+      <c r="T19" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1746,8 +1813,11 @@
       <c r="S20" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="2" customFormat="1">
+      <c r="T20" s="14">
+        <v>9.4020308386611511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
@@ -1805,8 +1875,11 @@
       <c r="S21" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" customFormat="1">
+      <c r="T21" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -1864,8 +1937,11 @@
       <c r="S22" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" customFormat="1">
+      <c r="T22" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1923,8 +1999,11 @@
       <c r="S23" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1">
+      <c r="T23" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="2" customFormat="1">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -1982,8 +2061,11 @@
       <c r="S24" s="14">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" customFormat="1">
+      <c r="T24" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -2041,8 +2123,11 @@
       <c r="S25" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" customFormat="1">
+      <c r="T25" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
@@ -2100,8 +2185,11 @@
       <c r="S26" s="14">
         <v>38.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" s="2" customFormat="1">
+      <c r="T26" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="2" customFormat="1">
       <c r="A27" s="22" t="s">
         <v>23</v>
       </c>
@@ -2159,8 +2247,11 @@
       <c r="S27" s="14">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" customFormat="1">
+      <c r="T27" s="14">
+        <v>18.390381830302751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" customFormat="1">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -2218,8 +2309,11 @@
       <c r="S28" s="14">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" customFormat="1">
+      <c r="T28" s="14">
+        <v>13.767941348569854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
@@ -2277,8 +2371,11 @@
       <c r="S29" s="14">
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1">
+      <c r="T29" s="14">
+        <v>20.707863811282333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="2" customFormat="1">
       <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
@@ -2336,8 +2433,11 @@
       <c r="S30" s="14">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" customFormat="1">
+      <c r="T30" s="14">
+        <v>32.401828145251145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
@@ -2395,8 +2495,11 @@
       <c r="S31" s="14">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" customFormat="1">
+      <c r="T31" s="14">
+        <v>26.276104738838367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2454,8 +2557,11 @@
       <c r="S32" s="14">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" s="2" customFormat="1">
+      <c r="T32" s="14">
+        <v>38.468501086169439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="2" customFormat="1">
       <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
@@ -2513,8 +2619,11 @@
       <c r="S33" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" customFormat="1">
+      <c r="T33" s="14">
+        <v>4.7916816406717935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -2572,8 +2681,11 @@
       <c r="S34" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" customFormat="1" ht="15.75" thickBot="1">
+      <c r="T34" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" customFormat="1" ht="15.75" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
@@ -2631,1871 +2743,1969 @@
       <c r="S35" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1">
-      <c r="Q37" s="28"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="34" t="s">
+      <c r="T35" s="15">
+        <v>10.173974972021568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" thickBot="1">
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="38"/>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B37" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C37" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D37" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-    </row>
-    <row r="39" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="39"/>
+    </row>
+    <row r="38" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="37">
+        <v>2007</v>
+      </c>
+      <c r="E38" s="37">
+        <v>2008</v>
+      </c>
+      <c r="F38" s="37">
+        <v>2009</v>
+      </c>
+      <c r="G38" s="37">
+        <v>2010</v>
+      </c>
+      <c r="H38" s="37">
+        <v>2011</v>
+      </c>
+      <c r="I38" s="37">
+        <v>2012</v>
+      </c>
+      <c r="J38" s="37">
+        <v>2013</v>
+      </c>
+      <c r="K38" s="37">
+        <v>2014</v>
+      </c>
+      <c r="L38" s="37">
+        <v>2015</v>
+      </c>
+      <c r="M38" s="37">
+        <v>2016</v>
+      </c>
+      <c r="N38" s="37">
+        <v>2017</v>
+      </c>
+      <c r="O38" s="37">
+        <v>2018</v>
+      </c>
+      <c r="P38" s="37">
+        <v>2019</v>
+      </c>
+      <c r="Q38" s="37">
+        <v>2020</v>
+      </c>
+      <c r="R38" s="37">
+        <v>2021</v>
+      </c>
+      <c r="S38" s="37">
+        <v>2022</v>
+      </c>
+      <c r="T38" s="40">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="2" customFormat="1">
+      <c r="A39" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="D39" s="24">
-        <v>2007</v>
+        <v>4.7929947256218917</v>
       </c>
       <c r="E39" s="24">
-        <v>2008</v>
+        <v>4.8264472521776725</v>
       </c>
       <c r="F39" s="24">
-        <v>2009</v>
+        <v>5.0574441363149774</v>
       </c>
       <c r="G39" s="24">
-        <v>2010</v>
+        <v>6.1488748619153526</v>
       </c>
       <c r="H39" s="24">
-        <v>2011</v>
+        <v>4.5172590093650991</v>
       </c>
       <c r="I39" s="24">
-        <v>2012</v>
+        <v>4.7813568659245176</v>
       </c>
       <c r="J39" s="24">
-        <v>2013</v>
+        <v>5.8351861726209044</v>
       </c>
       <c r="K39" s="24">
-        <v>2014</v>
+        <v>3.6020171295925718</v>
       </c>
       <c r="L39" s="24">
-        <v>2015</v>
+        <v>4.1032053849685912</v>
       </c>
       <c r="M39" s="24">
-        <v>2016</v>
+        <v>5.0480437859551772</v>
       </c>
       <c r="N39" s="24">
-        <v>2017</v>
+        <v>6.6911243191781002</v>
       </c>
       <c r="O39" s="24">
-        <v>2018</v>
+        <v>1.5168666086465188</v>
       </c>
       <c r="P39" s="24">
-        <v>2019</v>
+        <v>2.9328630976166821</v>
       </c>
       <c r="Q39" s="24">
-        <v>2020</v>
-      </c>
-      <c r="R39" s="24">
-        <v>2021</v>
-      </c>
-      <c r="S39" s="24">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="2" customFormat="1">
-      <c r="A40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="20" t="s">
+        <v>2.0423547235951385</v>
+      </c>
+      <c r="R39" s="29">
+        <v>3.7640611208244801</v>
+      </c>
+      <c r="S39" s="29">
+        <v>11.2</v>
+      </c>
+      <c r="T39" s="41">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="2" customFormat="1">
+      <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="14">
+        <v>0.7774538386783284</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0.41118590125781768</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1.6293610867838448</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0.82562747688243066</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.40314615257469294</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0.76460783264263754</v>
+      </c>
+      <c r="K40" s="14">
+        <v>1.1346616438977897</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0.72973258949258046</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0.36410904337631034</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0.35510480918443077</v>
+      </c>
+      <c r="P40" s="14">
         <v>0</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="25">
-        <v>4.7929947256218917</v>
-      </c>
-      <c r="E40" s="25">
-        <v>4.8264472521776725</v>
-      </c>
-      <c r="F40" s="25">
-        <v>5.0574441363149774</v>
-      </c>
-      <c r="G40" s="25">
-        <v>6.1488748619153526</v>
-      </c>
-      <c r="H40" s="25">
-        <v>4.5172590093650991</v>
-      </c>
-      <c r="I40" s="25">
-        <v>4.7813568659245176</v>
-      </c>
-      <c r="J40" s="25">
-        <v>5.8351861726209044</v>
-      </c>
-      <c r="K40" s="25">
-        <v>3.6020171295925718</v>
-      </c>
-      <c r="L40" s="25">
-        <v>4.1032053849685912</v>
-      </c>
-      <c r="M40" s="25">
-        <v>5.0480437859551772</v>
-      </c>
-      <c r="N40" s="25">
-        <v>6.6911243191781002</v>
-      </c>
-      <c r="O40" s="25">
-        <v>1.5168666086465188</v>
-      </c>
-      <c r="P40" s="25">
-        <v>2.9328630976166821</v>
-      </c>
-      <c r="Q40" s="25">
-        <v>2.0423547235951385</v>
+      <c r="Q40" s="14">
+        <v>0.35317343994462241</v>
       </c>
       <c r="R40" s="30">
-        <v>3.7640611208244801</v>
+        <v>0.35642491552729505</v>
       </c>
       <c r="S40" s="30">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="2" customFormat="1">
+        <v>0.3</v>
+      </c>
+      <c r="T40" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="14">
+        <v>9.4332418458608274</v>
+      </c>
+      <c r="E41" s="14">
+        <v>9.4282212374968939</v>
+      </c>
+      <c r="F41" s="14">
+        <v>8.7316036026596464</v>
+      </c>
+      <c r="G41" s="14">
+        <v>11.770296131931941</v>
+      </c>
+      <c r="H41" s="14">
+        <v>8.7876403930167548</v>
+      </c>
+      <c r="I41" s="14">
+        <v>9.9378667288863536</v>
+      </c>
+      <c r="J41" s="14">
+        <v>11.469205184080744</v>
+      </c>
+      <c r="K41" s="14">
+        <v>6.3741904778093188</v>
+      </c>
+      <c r="L41" s="14">
+        <v>7.9925290885992881</v>
+      </c>
+      <c r="M41" s="14">
+        <v>10.398988386409769</v>
+      </c>
+      <c r="N41" s="14">
+        <v>14.357972982397124</v>
+      </c>
+      <c r="O41" s="14">
+        <v>2.8478901202623312</v>
+      </c>
+      <c r="P41" s="14">
+        <v>6.2375735838758724</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>3.9147063774481596</v>
+      </c>
+      <c r="R41" s="31">
+        <v>7.5764523859843607</v>
+      </c>
+      <c r="S41" s="31">
+        <v>24.2</v>
+      </c>
+      <c r="T41" s="32">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="14">
+        <v>3.7281437572232785</v>
+      </c>
+      <c r="E42" s="14">
+        <v>4.0716612377850163</v>
+      </c>
+      <c r="F42" s="14">
+        <v>21.645958699510803</v>
+      </c>
+      <c r="G42" s="14">
+        <v>15.755475027572082</v>
+      </c>
+      <c r="H42" s="14">
+        <v>13.845621322256836</v>
+      </c>
+      <c r="I42" s="14">
+        <v>10.351252501552688</v>
+      </c>
+      <c r="J42" s="14">
+        <v>12.475438979509091</v>
+      </c>
+      <c r="K42" s="14">
+        <v>2.8657400773749822</v>
+      </c>
+      <c r="L42" s="14">
+        <v>17.705904919290582</v>
+      </c>
+      <c r="M42" s="14">
+        <v>20.716188221367268</v>
+      </c>
+      <c r="N42" s="14">
+        <v>11.266018870581608</v>
+      </c>
+      <c r="O42" s="14">
+        <v>2.8499772001823986</v>
+      </c>
+      <c r="P42" s="14">
+        <v>14.151477414242047</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>8.2388158075412612</v>
+      </c>
+      <c r="R42" s="31">
+        <v>8.3015108749792468</v>
+      </c>
+      <c r="S42" s="31">
+        <v>119.3</v>
+      </c>
+      <c r="T42" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="14">
-        <v>0.7774538386783284</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0.41118590125781768</v>
-      </c>
-      <c r="F41" s="14">
-        <v>1.6293610867838448</v>
-      </c>
-      <c r="G41" s="14">
-        <v>0.82562747688243066</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0.40314615257469294</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J41" s="14">
-        <v>0.76460783264263754</v>
-      </c>
-      <c r="K41" s="14">
-        <v>1.1346616438977897</v>
-      </c>
-      <c r="L41" s="14">
-        <v>0.72973258949258046</v>
-      </c>
-      <c r="M41" s="14">
-        <v>0.36410904337631034</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0.35510480918443077</v>
-      </c>
-      <c r="P41" s="14">
+      <c r="D43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="14">
+        <v>7.1118697105469035</v>
+      </c>
+      <c r="E44" s="14">
+        <v>7.1901064135749202</v>
+      </c>
+      <c r="F44" s="14">
+        <v>41.524790299808984</v>
+      </c>
+      <c r="G44" s="14">
+        <v>28.176951253874329</v>
+      </c>
+      <c r="H44" s="14">
+        <v>26.668444562970866</v>
+      </c>
+      <c r="I44" s="14">
+        <v>20.197939810139363</v>
+      </c>
+      <c r="J44" s="14">
+        <v>23.565453045834804</v>
+      </c>
+      <c r="K44" s="14">
+        <v>6.2558648733187363</v>
+      </c>
+      <c r="L44" s="14">
+        <v>38.562889645864132</v>
+      </c>
+      <c r="M44" s="14">
+        <v>43.859649122807021</v>
+      </c>
+      <c r="N44" s="14">
+        <v>24.816974810770567</v>
+      </c>
+      <c r="O44" s="14">
+        <v>6.485504896556197</v>
+      </c>
+      <c r="P44" s="14">
+        <v>32.036906516306786</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>18.12141347025068</v>
+      </c>
+      <c r="R44" s="31">
+        <v>18.37109614206981</v>
+      </c>
+      <c r="S44" s="31">
+        <v>270</v>
+      </c>
+      <c r="T44" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="14">
+        <v>3.5839724750913913</v>
+      </c>
+      <c r="E45" s="14">
+        <v>4.5343933737398165</v>
+      </c>
+      <c r="F45" s="14">
+        <v>3.3524984494694667</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1.6519096075062774</v>
+      </c>
+      <c r="H45" s="14">
+        <v>4.7227732124303392</v>
+      </c>
+      <c r="I45" s="14">
+        <v>9.2000552003312031</v>
+      </c>
+      <c r="J45" s="14">
+        <v>9.3908470544043077</v>
+      </c>
+      <c r="K45" s="14">
+        <v>3.0236144286880537</v>
+      </c>
+      <c r="L45" s="14">
+        <v>2.7760812836599857</v>
+      </c>
+      <c r="M45" s="14">
+        <v>1.395556547951323</v>
+      </c>
+      <c r="N45" s="14">
+        <v>13.231713771567692</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>2.6483050847457625</v>
+      </c>
+      <c r="R45" s="31">
+        <v>3.7168733661244162</v>
+      </c>
+      <c r="S45" s="31">
+        <v>9.9</v>
+      </c>
+      <c r="T45" s="32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" s="14">
+        <v>2.8332625017707889</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="14">
+        <v>7.7142636735323604</v>
+      </c>
+      <c r="E47" s="14">
+        <v>9.4843666023837372</v>
+      </c>
+      <c r="F47" s="14">
+        <v>7.0370500686112383</v>
+      </c>
+      <c r="G47" s="14">
+        <v>3.4543507547756396</v>
+      </c>
+      <c r="H47" s="14">
+        <v>10.300782859497321</v>
+      </c>
+      <c r="I47" s="14">
+        <v>20.343810395687111</v>
+      </c>
+      <c r="J47" s="14">
+        <v>17.484351505402664</v>
+      </c>
+      <c r="K47" s="14">
+        <v>6.5477164838762478</v>
+      </c>
+      <c r="L47" s="14">
+        <v>6.1468482035836125</v>
+      </c>
+      <c r="M47" s="14">
+        <v>3.0846108763379498</v>
+      </c>
+      <c r="N47" s="14">
+        <v>29.02252147666589</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P47" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>5.85000585000585</v>
+      </c>
+      <c r="R47" s="31">
+        <v>8.4293340826074736</v>
+      </c>
+      <c r="S47" s="31">
+        <v>23.4</v>
+      </c>
+      <c r="T47" s="32">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="14">
+        <v>13.136806705026142</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2.6462727248670248</v>
+      </c>
+      <c r="F48" s="14">
+        <v>16.290182450043442</v>
+      </c>
+      <c r="G48" s="14">
+        <v>7.8400627205017637</v>
+      </c>
+      <c r="H48" s="14">
+        <v>2.5961887948491613</v>
+      </c>
+      <c r="I48" s="14">
+        <v>5.4632867132867133</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14">
+        <v>2.6559014129395515</v>
+      </c>
+      <c r="L48" s="14">
+        <v>7.7978789769182786</v>
+      </c>
+      <c r="M48" s="14">
+        <v>10.529918129886541</v>
+      </c>
+      <c r="N48" s="14">
+        <v>7.956926504522186</v>
+      </c>
+      <c r="O48" s="14">
+        <v>2.5359470494256078</v>
+      </c>
+      <c r="P48" s="14">
+        <v>7.9047217537942664</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>5.0391796215576106</v>
+      </c>
+      <c r="R48" s="31">
+        <v>5.0734380152710488</v>
+      </c>
+      <c r="S48" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="32">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="14">
+        <v>5.2532044547173777</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="14">
+        <v>16.760712888988213</v>
+      </c>
+      <c r="G49" s="14">
+        <v>5.0387987503779099</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="14">
+        <v>21.02496714848883</v>
+      </c>
+      <c r="E50" s="14">
+        <v>5.3027892671545231</v>
+      </c>
+      <c r="F50" s="14">
+        <v>15.845349389954048</v>
+      </c>
+      <c r="G50" s="14">
+        <v>10.85835278788208</v>
+      </c>
+      <c r="H50" s="14">
+        <v>5.3527459586768016</v>
+      </c>
+      <c r="I50" s="14">
+        <v>11.813349084465447</v>
+      </c>
+      <c r="J50" s="14">
         <v>0</v>
       </c>
-      <c r="Q41" s="14">
-        <v>0.35317343994462241</v>
-      </c>
-      <c r="R41" s="31">
-        <v>0.35642491552729505</v>
-      </c>
-      <c r="S41" s="31">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="4" t="s">
+      <c r="K50" s="14">
+        <v>5.5906524291384807</v>
+      </c>
+      <c r="L50" s="14">
+        <v>16.993315962388127</v>
+      </c>
+      <c r="M50" s="14">
+        <v>22.840175869354194</v>
+      </c>
+      <c r="N50" s="14">
+        <v>17.059994313335231</v>
+      </c>
+      <c r="O50" s="14">
+        <v>5.5934668307416935</v>
+      </c>
+      <c r="P50" s="14">
+        <v>17.360106475319714</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>11.036918492356934</v>
+      </c>
+      <c r="R50" s="31">
+        <v>11.222085063404782</v>
+      </c>
+      <c r="S50" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T50" s="32">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="14">
+        <v>17.955739103110833</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4.4480028467218222</v>
+      </c>
+      <c r="F51" s="14">
+        <v>8.6531389261454592</v>
+      </c>
+      <c r="G51" s="14">
+        <v>8.6003010105353681</v>
+      </c>
+      <c r="H51" s="14">
+        <v>8.4430935494765293</v>
+      </c>
+      <c r="I51" s="14">
+        <v>8.2856906123125373</v>
+      </c>
+      <c r="J51" s="14">
+        <v>8.2240223693408439</v>
+      </c>
+      <c r="K51" s="14">
+        <v>16.345878795308732</v>
+      </c>
+      <c r="L51" s="14">
+        <v>3.700277520814061</v>
+      </c>
+      <c r="M51" s="14">
+        <v>19.647137412079058</v>
+      </c>
+      <c r="N51" s="14">
+        <v>19.320684725066656</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P51" s="14">
+        <v>7.6958596275203943</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R51" s="31">
+        <v>3.8080731150038076</v>
+      </c>
+      <c r="S51" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="32">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="14">
+        <v>8.0586670964622442</v>
+      </c>
+      <c r="F52" s="14">
+        <v>7.9076387790605729</v>
+      </c>
+      <c r="G52" s="14">
+        <v>7.7893752921015729</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="14">
-        <v>9.4332418458608274</v>
-      </c>
-      <c r="E42" s="14">
-        <v>9.4282212374968939</v>
-      </c>
-      <c r="F42" s="14">
-        <v>8.7316036026596464</v>
-      </c>
-      <c r="G42" s="14">
-        <v>11.770296131931941</v>
-      </c>
-      <c r="H42" s="14">
-        <v>8.7876403930167548</v>
-      </c>
-      <c r="I42" s="14">
-        <v>9.9378667288863536</v>
-      </c>
-      <c r="J42" s="14">
-        <v>11.469205184080744</v>
-      </c>
-      <c r="K42" s="14">
-        <v>6.3741904778093188</v>
-      </c>
-      <c r="L42" s="14">
-        <v>7.9925290885992881</v>
-      </c>
-      <c r="M42" s="14">
-        <v>10.398988386409769</v>
-      </c>
-      <c r="N42" s="14">
-        <v>14.357972982397124</v>
-      </c>
-      <c r="O42" s="14">
-        <v>2.8478901202623312</v>
-      </c>
-      <c r="P42" s="14">
-        <v>6.2375735838758724</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>3.9147063774481596</v>
-      </c>
-      <c r="R42" s="32">
-        <v>7.5764523859843607</v>
-      </c>
-      <c r="S42" s="32">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="14">
-        <v>3.7281437572232785</v>
-      </c>
-      <c r="E43" s="14">
-        <v>4.0716612377850163</v>
-      </c>
-      <c r="F43" s="14">
-        <v>21.645958699510803</v>
-      </c>
-      <c r="G43" s="14">
-        <v>15.755475027572082</v>
-      </c>
-      <c r="H43" s="14">
-        <v>13.845621322256836</v>
-      </c>
-      <c r="I43" s="14">
-        <v>10.351252501552688</v>
-      </c>
-      <c r="J43" s="14">
-        <v>12.475438979509091</v>
-      </c>
-      <c r="K43" s="14">
-        <v>2.8657400773749822</v>
-      </c>
-      <c r="L43" s="14">
-        <v>17.705904919290582</v>
-      </c>
-      <c r="M43" s="14">
-        <v>20.716188221367268</v>
-      </c>
-      <c r="N43" s="14">
-        <v>11.266018870581608</v>
-      </c>
-      <c r="O43" s="14">
-        <v>2.8499772001823986</v>
-      </c>
-      <c r="P43" s="14">
-        <v>14.151477414242047</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>8.2388158075412612</v>
-      </c>
-      <c r="R43" s="32">
-        <v>8.3015108749792468</v>
-      </c>
-      <c r="S43" s="32">
-        <v>119.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="4" t="s">
+      <c r="D53" s="14">
+        <v>38.718420288452236</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="14">
+        <v>9.5538358650998383</v>
+      </c>
+      <c r="G53" s="14">
+        <v>9.5996928098300849</v>
+      </c>
+      <c r="H53" s="14">
+        <v>18.703824932198632</v>
+      </c>
+      <c r="I53" s="14">
+        <v>18.637592023110614</v>
+      </c>
+      <c r="J53" s="14">
+        <v>18.883958077613066</v>
+      </c>
+      <c r="K53" s="14">
+        <v>37.70383636535017</v>
+      </c>
+      <c r="L53" s="14">
+        <v>8.6880973066898353</v>
+      </c>
+      <c r="M53" s="14">
+        <v>45.195697369610414</v>
+      </c>
+      <c r="N53" s="14">
+        <v>43.402777777777779</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" s="14">
+        <v>17.711654268508678</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R53" s="31">
+        <v>8.7443161944735923</v>
+      </c>
+      <c r="S53" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" s="32">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="14">
+        <v>2.1480431327061047</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4.3451811940557921</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="14">
+        <v>7.2507552870090644</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="14">
+        <v>2.6496383243687238</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="14">
+        <v>2.590740692764061</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N54" s="14">
+        <v>6.7767512254625126</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q54" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R54" s="31">
+        <v>4.0505508749189891</v>
+      </c>
+      <c r="S54" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R44" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S44" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="4" t="s">
+      <c r="D55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="14">
-        <v>7.1118697105469035</v>
-      </c>
-      <c r="E45" s="14">
-        <v>7.1901064135749202</v>
-      </c>
-      <c r="F45" s="14">
-        <v>41.524790299808984</v>
-      </c>
-      <c r="G45" s="14">
-        <v>28.176951253874329</v>
-      </c>
-      <c r="H45" s="14">
-        <v>26.668444562970866</v>
-      </c>
-      <c r="I45" s="14">
-        <v>20.197939810139363</v>
-      </c>
-      <c r="J45" s="14">
-        <v>23.565453045834804</v>
-      </c>
-      <c r="K45" s="14">
-        <v>6.2558648733187363</v>
-      </c>
-      <c r="L45" s="14">
-        <v>38.562889645864132</v>
-      </c>
-      <c r="M45" s="14">
-        <v>43.859649122807021</v>
-      </c>
-      <c r="N45" s="14">
-        <v>24.816974810770567</v>
-      </c>
-      <c r="O45" s="14">
-        <v>6.485504896556197</v>
-      </c>
-      <c r="P45" s="14">
-        <v>32.036906516306786</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>18.12141347025068</v>
-      </c>
-      <c r="R45" s="32">
-        <v>18.37109614206981</v>
-      </c>
-      <c r="S45" s="32">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="14">
-        <v>3.5839724750913913</v>
-      </c>
-      <c r="E46" s="14">
-        <v>4.5343933737398165</v>
-      </c>
-      <c r="F46" s="14">
-        <v>3.3524984494694667</v>
-      </c>
-      <c r="G46" s="14">
-        <v>1.6519096075062774</v>
-      </c>
-      <c r="H46" s="14">
-        <v>4.7227732124303392</v>
-      </c>
-      <c r="I46" s="14">
-        <v>9.2000552003312031</v>
-      </c>
-      <c r="J46" s="14">
-        <v>9.3908470544043077</v>
-      </c>
-      <c r="K46" s="14">
-        <v>3.0236144286880537</v>
-      </c>
-      <c r="L46" s="14">
-        <v>2.7760812836599857</v>
-      </c>
-      <c r="M46" s="14">
-        <v>1.395556547951323</v>
-      </c>
-      <c r="N46" s="14">
-        <v>13.231713771567692</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P46" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>2.6483050847457625</v>
-      </c>
-      <c r="R46" s="32">
-        <v>3.7168733661244162</v>
-      </c>
-      <c r="S46" s="32">
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14">
+        <v>4.8809058961343226</v>
+      </c>
+      <c r="F56" s="14">
+        <v>11.227124733355787</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="14">
+        <v>17.884821747943246</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56" s="14">
+        <v>6.3783645873198109</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="14">
+        <v>6.510416666666667</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N56" s="14">
+        <v>16.669444907484582</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R56" s="31">
+        <v>9.9775505113494631</v>
+      </c>
+      <c r="S56" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="14">
+        <v>5.7557269483135718</v>
+      </c>
+      <c r="E57" s="14">
+        <v>5.7015793374764812</v>
+      </c>
+      <c r="F57" s="14">
+        <v>5.3504547886570357</v>
+      </c>
+      <c r="G57" s="14">
+        <v>5.4836586970826939</v>
+      </c>
+      <c r="H57" s="14">
+        <v>10.582570506375999</v>
+      </c>
+      <c r="I57" s="14">
+        <v>5.2590060478569551</v>
+      </c>
+      <c r="J57" s="14">
+        <v>30.616931162933103</v>
+      </c>
+      <c r="K57" s="14">
+        <v>10.404744563520966</v>
+      </c>
+      <c r="L57" s="14">
+        <v>10.041168792047396</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" s="14">
+        <v>5.1023011378131535</v>
+      </c>
+      <c r="O57" s="14">
+        <v>4.9231981094919259</v>
+      </c>
+      <c r="P57" s="14">
+        <v>4.6412327114081497</v>
+      </c>
+      <c r="Q57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R57" s="31">
+        <v>9.2902266815310295</v>
+      </c>
+      <c r="S57" s="31">
+        <v>13.8</v>
+      </c>
+      <c r="T57" s="32">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q58" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R58" s="31">
+        <v>9.0025207057976235</v>
+      </c>
+      <c r="S58" s="31">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T58" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="14">
+        <v>13.294336612603033</v>
+      </c>
+      <c r="E59" s="14">
+        <v>13.486176668914363</v>
+      </c>
+      <c r="F59" s="14">
+        <v>12.292562999385371</v>
+      </c>
+      <c r="G59" s="14">
+        <v>11.87507421921387</v>
+      </c>
+      <c r="H59" s="14">
+        <v>23.419203747072601</v>
+      </c>
+      <c r="I59" s="14">
+        <v>11.546010853250202</v>
+      </c>
+      <c r="J59" s="14">
+        <v>66.555740432612311</v>
+      </c>
+      <c r="K59" s="14">
+        <v>22.606533288120268</v>
+      </c>
+      <c r="L59" s="14">
+        <v>21.746221593998044</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N59" s="14">
+        <v>11.318619128466327</v>
+      </c>
+      <c r="O59" s="14">
+        <v>10.524100189433803</v>
+      </c>
+      <c r="P59" s="14">
+        <v>10.310341272296114</v>
+      </c>
+      <c r="Q59" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R59" s="31">
+        <v>9.5969289827255277</v>
+      </c>
+      <c r="S59" s="31">
+        <v>19.5</v>
+      </c>
+      <c r="T59" s="32">
         <v>9.9</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="4" t="s">
+    <row r="60" spans="1:20">
+      <c r="A60" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="14">
+        <v>6.6823479097615737</v>
+      </c>
+      <c r="E60" s="14">
+        <v>9.9663989976650154</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="14">
+        <v>4.7744091668656008</v>
+      </c>
+      <c r="H60" s="14">
+        <v>3.3304469459801505</v>
+      </c>
+      <c r="I60" s="14">
+        <v>6.3051702395964693</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="14">
+        <v>4.9367276078263584</v>
+      </c>
+      <c r="L60" s="14">
+        <v>3.2069269622384349</v>
+      </c>
+      <c r="M60" s="14">
+        <v>3.1810156983124709</v>
+      </c>
+      <c r="N60" s="14">
+        <v>3.3101074129855514</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P60" s="14">
+        <v>1.5392193079669989</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>3.0257643837274388</v>
+      </c>
+      <c r="R60" s="31">
+        <v>1.5812526683638779</v>
+      </c>
+      <c r="S60" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="14">
-        <v>2.8332625017707889</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R47" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S47" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48" s="4" t="s">
+      <c r="D61" s="14">
+        <v>2.7096599376778214</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="14">
+        <v>3.1539771652053239</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="14">
+        <v>9.5779324436498303</v>
+      </c>
+      <c r="L61" s="14">
+        <v>6.1139642944485209</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>3.0170463116608843</v>
+      </c>
+      <c r="R61" s="31">
+        <v>0</v>
+      </c>
+      <c r="S61" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T61" s="32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="14">
-        <v>7.7142636735323604</v>
-      </c>
-      <c r="E48" s="14">
-        <v>9.4843666023837372</v>
-      </c>
-      <c r="F48" s="14">
-        <v>7.0370500686112383</v>
-      </c>
-      <c r="G48" s="14">
-        <v>3.4543507547756396</v>
-      </c>
-      <c r="H48" s="14">
-        <v>10.300782859497321</v>
-      </c>
-      <c r="I48" s="14">
-        <v>20.343810395687111</v>
-      </c>
-      <c r="J48" s="14">
-        <v>17.484351505402664</v>
-      </c>
-      <c r="K48" s="14">
-        <v>6.5477164838762478</v>
-      </c>
-      <c r="L48" s="14">
-        <v>6.1468482035836125</v>
-      </c>
-      <c r="M48" s="14">
-        <v>3.0846108763379498</v>
-      </c>
-      <c r="N48" s="14">
-        <v>29.02252147666589</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P48" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>5.85000585000585</v>
-      </c>
-      <c r="R48" s="32">
-        <v>8.4293340826074736</v>
-      </c>
-      <c r="S48" s="32">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
-      <c r="A49" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="14">
-        <v>13.136806705026142</v>
-      </c>
-      <c r="E49" s="14">
-        <v>2.6462727248670248</v>
-      </c>
-      <c r="F49" s="14">
-        <v>16.290182450043442</v>
-      </c>
-      <c r="G49" s="14">
-        <v>7.8400627205017637</v>
-      </c>
-      <c r="H49" s="14">
-        <v>2.5961887948491613</v>
-      </c>
-      <c r="I49" s="14">
-        <v>5.4632867132867133</v>
-      </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14">
-        <v>2.6559014129395515</v>
-      </c>
-      <c r="L49" s="14">
-        <v>7.7978789769182786</v>
-      </c>
-      <c r="M49" s="14">
-        <v>10.529918129886541</v>
-      </c>
-      <c r="N49" s="14">
-        <v>7.956926504522186</v>
-      </c>
-      <c r="O49" s="14">
-        <v>2.5359470494256078</v>
-      </c>
-      <c r="P49" s="14">
-        <v>7.9047217537942664</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>5.0391796215576106</v>
-      </c>
-      <c r="R49" s="32">
-        <v>5.0734380152710488</v>
-      </c>
-      <c r="S49" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="4" t="s">
+      <c r="D62" s="14">
+        <v>10.548801392441785</v>
+      </c>
+      <c r="E62" s="14">
+        <v>19.312475859405176</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G62" s="14">
+        <v>9.8199672667757767</v>
+      </c>
+      <c r="H62" s="14">
+        <v>3.5278346151132434</v>
+      </c>
+      <c r="I62" s="14">
+        <v>13.373900832525326</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="14">
+        <v>6.3259109311740893</v>
+      </c>
+      <c r="N62" s="14">
+        <v>6.5837118967673973</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P62" s="14">
+        <v>3.0813792253412626</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>3.0345329853735512</v>
+      </c>
+      <c r="R62" s="31">
+        <v>3.1401117879796518</v>
+      </c>
+      <c r="S62" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="T62" s="32">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="14">
+        <v>1.9158433861893236</v>
+      </c>
+      <c r="E63" s="14">
+        <v>3.2951100566758931</v>
+      </c>
+      <c r="F63" s="14">
+        <v>3.0610620660944523</v>
+      </c>
+      <c r="G63" s="14">
+        <v>7.2334038590209593</v>
+      </c>
+      <c r="H63" s="14">
+        <v>2.2981637671500472</v>
+      </c>
+      <c r="I63" s="14">
+        <v>2.2184139449500577</v>
+      </c>
+      <c r="J63" s="14">
+        <v>3.8755612643188146</v>
+      </c>
+      <c r="K63" s="14">
+        <v>1.6627038890643966</v>
+      </c>
+      <c r="L63" s="14">
+        <v>1.669541988981023</v>
+      </c>
+      <c r="M63" s="14">
+        <v>3.2985700698747094</v>
+      </c>
+      <c r="N63" s="14">
+        <v>2.1627233011808467</v>
+      </c>
+      <c r="O63" s="14">
+        <v>2.1260424251765944</v>
+      </c>
+      <c r="P63" s="14">
+        <v>2.0240046956908944</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>1.0659446668123458</v>
+      </c>
+      <c r="R63" s="31">
+        <v>2.2816724659175174</v>
+      </c>
+      <c r="S63" s="31">
+        <v>1.7</v>
+      </c>
+      <c r="T63" s="32">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="14">
-        <v>5.2532044547173777</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="14">
-        <v>16.760712888988213</v>
-      </c>
-      <c r="G50" s="14">
-        <v>5.0387987503779099</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R50" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S50" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="4" t="s">
+      <c r="D64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64" s="14">
+        <v>1.0711799046649884</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="14">
+        <v>1.0595577405990739</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="14">
+        <v>1.017490664523153</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="14">
-        <v>21.02496714848883</v>
-      </c>
-      <c r="E51" s="14">
-        <v>5.3027892671545231</v>
-      </c>
-      <c r="F51" s="14">
-        <v>15.845349389954048</v>
-      </c>
-      <c r="G51" s="14">
-        <v>10.85835278788208</v>
-      </c>
-      <c r="H51" s="14">
-        <v>5.3527459586768016</v>
-      </c>
-      <c r="I51" s="14">
-        <v>11.813349084465447</v>
-      </c>
-      <c r="J51" s="14">
-        <v>0</v>
-      </c>
-      <c r="K51" s="14">
-        <v>5.5906524291384807</v>
-      </c>
-      <c r="L51" s="14">
-        <v>16.993315962388127</v>
-      </c>
-      <c r="M51" s="14">
-        <v>22.840175869354194</v>
-      </c>
-      <c r="N51" s="14">
-        <v>17.059994313335231</v>
-      </c>
-      <c r="O51" s="14">
-        <v>5.5934668307416935</v>
-      </c>
-      <c r="P51" s="14">
-        <v>17.360106475319714</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>11.036918492356934</v>
-      </c>
-      <c r="R51" s="32">
-        <v>11.222085063404782</v>
-      </c>
-      <c r="S51" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="14">
-        <v>17.955739103110833</v>
-      </c>
-      <c r="E52" s="14">
-        <v>4.4480028467218222</v>
-      </c>
-      <c r="F52" s="14">
-        <v>8.6531389261454592</v>
-      </c>
-      <c r="G52" s="14">
-        <v>8.6003010105353681</v>
-      </c>
-      <c r="H52" s="14">
-        <v>8.4430935494765293</v>
-      </c>
-      <c r="I52" s="14">
-        <v>8.2856906123125373</v>
-      </c>
-      <c r="J52" s="14">
-        <v>8.2240223693408439</v>
-      </c>
-      <c r="K52" s="14">
-        <v>16.345878795308732</v>
-      </c>
-      <c r="L52" s="14">
-        <v>3.700277520814061</v>
-      </c>
-      <c r="M52" s="14">
-        <v>19.647137412079058</v>
-      </c>
-      <c r="N52" s="14">
-        <v>19.320684725066656</v>
-      </c>
-      <c r="O52" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P52" s="14">
-        <v>7.6958596275203943</v>
-      </c>
-      <c r="Q52" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R52" s="32">
-        <v>3.8080731150038076</v>
-      </c>
-      <c r="S52" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="4" t="s">
+      <c r="D65" s="14">
+        <v>4.2808219178082192</v>
+      </c>
+      <c r="E65" s="14">
+        <v>6.6834197722290547</v>
+      </c>
+      <c r="F65" s="14">
+        <v>6.1864343866768952</v>
+      </c>
+      <c r="G65" s="14">
+        <v>14.513261492688946</v>
+      </c>
+      <c r="H65" s="14">
+        <v>4.349669968791118</v>
+      </c>
+      <c r="I65" s="14">
+        <v>4.5012097001069034</v>
+      </c>
+      <c r="J65" s="14">
+        <v>6.8756875687568755</v>
+      </c>
+      <c r="K65" s="14">
+        <v>3.4132799344650255</v>
+      </c>
+      <c r="L65" s="14">
+        <v>3.4866693010390271</v>
+      </c>
+      <c r="M65" s="14">
+        <v>5.7131104458511395</v>
+      </c>
+      <c r="N65" s="14">
+        <v>4.5307809933737326</v>
+      </c>
+      <c r="O65" s="14">
+        <v>3.3384522935167258</v>
+      </c>
+      <c r="P65" s="14">
+        <v>4.2056123897341005</v>
+      </c>
+      <c r="Q65" s="14">
+        <v>2.1416257080749999</v>
+      </c>
+      <c r="R65" s="31">
+        <v>4.5210000452100001</v>
+      </c>
+      <c r="S65" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="T65" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="14">
+        <v>5.2642661612971153</v>
+      </c>
+      <c r="E66" s="14">
+        <v>7.5987841945288759</v>
+      </c>
+      <c r="F66" s="14">
+        <v>2.6184179518734778</v>
+      </c>
+      <c r="G66" s="14">
+        <v>7.9007663743383105</v>
+      </c>
+      <c r="H66" s="14">
+        <v>2.6298487836949378</v>
+      </c>
+      <c r="I66" s="14">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J66" s="14">
+        <v>8.1579376733561766</v>
+      </c>
+      <c r="K66" s="14">
+        <v>5.178932104200114</v>
+      </c>
+      <c r="L66" s="14">
+        <v>2.5128785023244129</v>
+      </c>
+      <c r="M66" s="14">
+        <v>2.4922739507526668</v>
+      </c>
+      <c r="N66" s="14">
+        <v>7.657554177195804</v>
+      </c>
+      <c r="O66" s="14">
+        <v>2.6174584478471403</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R66" s="31">
+        <v>5.0820755196422223</v>
+      </c>
+      <c r="S66" s="31">
+        <v>5</v>
+      </c>
+      <c r="T66" s="32">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B67" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="14">
-        <v>8.0586670964622442</v>
-      </c>
-      <c r="F53" s="14">
-        <v>7.9076387790605729</v>
-      </c>
-      <c r="G53" s="14">
-        <v>7.7893752921015729</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R53" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S53" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="4" t="s">
+      <c r="D67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S67" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T67" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A68" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="14">
-        <v>38.718420288452236</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="14">
-        <v>9.5538358650998383</v>
-      </c>
-      <c r="G54" s="14">
-        <v>9.5996928098300849</v>
-      </c>
-      <c r="H54" s="14">
-        <v>18.703824932198632</v>
-      </c>
-      <c r="I54" s="14">
-        <v>18.637592023110614</v>
-      </c>
-      <c r="J54" s="14">
-        <v>18.883958077613066</v>
-      </c>
-      <c r="K54" s="14">
-        <v>37.70383636535017</v>
-      </c>
-      <c r="L54" s="14">
-        <v>8.6880973066898353</v>
-      </c>
-      <c r="M54" s="14">
-        <v>45.195697369610414</v>
-      </c>
-      <c r="N54" s="14">
-        <v>43.402777777777779</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P54" s="14">
-        <v>17.711654268508678</v>
-      </c>
-      <c r="Q54" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R54" s="32">
-        <v>8.7443161944735923</v>
-      </c>
-      <c r="S54" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="14">
-        <v>0</v>
-      </c>
-      <c r="E55" s="14">
-        <v>2.1480431327061047</v>
-      </c>
-      <c r="F55" s="14">
-        <v>4.3451811940557921</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="14">
-        <v>7.2507552870090644</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J55" s="14">
-        <v>2.6496383243687238</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L55" s="14">
-        <v>2.590740692764061</v>
-      </c>
-      <c r="M55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N55" s="14">
-        <v>6.7767512254625126</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q55" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R55" s="32">
-        <v>4.0505508749189891</v>
-      </c>
-      <c r="S55" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R56" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S56" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="14">
-        <v>0</v>
-      </c>
-      <c r="E57" s="14">
-        <v>4.8809058961343226</v>
-      </c>
-      <c r="F57" s="14">
-        <v>11.227124733355787</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="14">
-        <v>17.884821747943246</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J57" s="14">
-        <v>6.3783645873198109</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L57" s="14">
-        <v>6.510416666666667</v>
-      </c>
-      <c r="M57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N57" s="14">
-        <v>16.669444907484582</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R57" s="32">
-        <v>9.9775505113494631</v>
-      </c>
-      <c r="S57" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="14">
-        <v>5.7557269483135718</v>
-      </c>
-      <c r="E58" s="14">
-        <v>5.7015793374764812</v>
-      </c>
-      <c r="F58" s="14">
-        <v>5.3504547886570357</v>
-      </c>
-      <c r="G58" s="14">
-        <v>5.4836586970826939</v>
-      </c>
-      <c r="H58" s="14">
-        <v>10.582570506375999</v>
-      </c>
-      <c r="I58" s="14">
-        <v>5.2590060478569551</v>
-      </c>
-      <c r="J58" s="14">
-        <v>30.616931162933103</v>
-      </c>
-      <c r="K58" s="14">
-        <v>10.404744563520966</v>
-      </c>
-      <c r="L58" s="14">
-        <v>10.041168792047396</v>
-      </c>
-      <c r="M58" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N58" s="14">
-        <v>5.1023011378131535</v>
-      </c>
-      <c r="O58" s="14">
-        <v>4.9231981094919259</v>
-      </c>
-      <c r="P58" s="14">
-        <v>4.6412327114081497</v>
-      </c>
-      <c r="Q58" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R58" s="32">
-        <v>9.2902266815310295</v>
-      </c>
-      <c r="S58" s="32">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R59" s="32">
-        <v>9.0025207057976235</v>
-      </c>
-      <c r="S59" s="32">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="14">
-        <v>13.294336612603033</v>
-      </c>
-      <c r="E60" s="14">
-        <v>13.486176668914363</v>
-      </c>
-      <c r="F60" s="14">
-        <v>12.292562999385371</v>
-      </c>
-      <c r="G60" s="14">
-        <v>11.87507421921387</v>
-      </c>
-      <c r="H60" s="14">
-        <v>23.419203747072601</v>
-      </c>
-      <c r="I60" s="14">
-        <v>11.546010853250202</v>
-      </c>
-      <c r="J60" s="14">
-        <v>66.555740432612311</v>
-      </c>
-      <c r="K60" s="14">
-        <v>22.606533288120268</v>
-      </c>
-      <c r="L60" s="14">
-        <v>21.746221593998044</v>
-      </c>
-      <c r="M60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N60" s="14">
-        <v>11.318619128466327</v>
-      </c>
-      <c r="O60" s="14">
-        <v>10.524100189433803</v>
-      </c>
-      <c r="P60" s="14">
-        <v>10.310341272296114</v>
-      </c>
-      <c r="Q60" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R60" s="32">
-        <v>9.5969289827255277</v>
-      </c>
-      <c r="S60" s="32">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="14">
-        <v>6.6823479097615737</v>
-      </c>
-      <c r="E61" s="14">
-        <v>9.9663989976650154</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="14">
-        <v>4.7744091668656008</v>
-      </c>
-      <c r="H61" s="14">
-        <v>3.3304469459801505</v>
-      </c>
-      <c r="I61" s="14">
-        <v>6.3051702395964693</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" s="14">
-        <v>4.9367276078263584</v>
-      </c>
-      <c r="L61" s="14">
-        <v>3.2069269622384349</v>
-      </c>
-      <c r="M61" s="14">
-        <v>3.1810156983124709</v>
-      </c>
-      <c r="N61" s="14">
-        <v>3.3101074129855514</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P61" s="14">
-        <v>1.5392193079669989</v>
-      </c>
-      <c r="Q61" s="14">
-        <v>3.0257643837274388</v>
-      </c>
-      <c r="R61" s="32">
-        <v>1.5812526683638779</v>
-      </c>
-      <c r="S61" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="14">
-        <v>2.7096599376778214</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="14">
-        <v>3.1539771652053239</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62" s="14">
-        <v>9.5779324436498303</v>
-      </c>
-      <c r="L62" s="14">
-        <v>6.1139642944485209</v>
-      </c>
-      <c r="M62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q62" s="14">
-        <v>3.0170463116608843</v>
-      </c>
-      <c r="R62" s="32">
-        <v>0</v>
-      </c>
-      <c r="S62" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="14">
-        <v>10.548801392441785</v>
-      </c>
-      <c r="E63" s="14">
-        <v>19.312475859405176</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="14">
-        <v>9.8199672667757767</v>
-      </c>
-      <c r="H63" s="14">
-        <v>3.5278346151132434</v>
-      </c>
-      <c r="I63" s="14">
-        <v>13.373900832525326</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L63" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="14">
-        <v>6.3259109311740893</v>
-      </c>
-      <c r="N63" s="14">
-        <v>6.5837118967673973</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P63" s="14">
-        <v>3.0813792253412626</v>
-      </c>
-      <c r="Q63" s="14">
-        <v>3.0345329853735512</v>
-      </c>
-      <c r="R63" s="32">
-        <v>3.1401117879796518</v>
-      </c>
-      <c r="S63" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="14">
-        <v>1.9158433861893236</v>
-      </c>
-      <c r="E64" s="14">
-        <v>3.2951100566758931</v>
-      </c>
-      <c r="F64" s="14">
-        <v>3.0610620660944523</v>
-      </c>
-      <c r="G64" s="14">
-        <v>7.2334038590209593</v>
-      </c>
-      <c r="H64" s="14">
-        <v>2.2981637671500472</v>
-      </c>
-      <c r="I64" s="14">
-        <v>2.2184139449500577</v>
-      </c>
-      <c r="J64" s="14">
-        <v>3.8755612643188146</v>
-      </c>
-      <c r="K64" s="14">
-        <v>1.6627038890643966</v>
-      </c>
-      <c r="L64" s="14">
-        <v>1.669541988981023</v>
-      </c>
-      <c r="M64" s="14">
-        <v>3.2985700698747094</v>
-      </c>
-      <c r="N64" s="14">
-        <v>2.1627233011808467</v>
-      </c>
-      <c r="O64" s="14">
-        <v>2.1260424251765944</v>
-      </c>
-      <c r="P64" s="14">
-        <v>2.0240046956908944</v>
-      </c>
-      <c r="Q64" s="14">
-        <v>1.0659446668123458</v>
-      </c>
-      <c r="R64" s="32">
-        <v>2.2816724659175174</v>
-      </c>
-      <c r="S64" s="32">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J65" s="14">
-        <v>1.0711799046649884</v>
-      </c>
-      <c r="K65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="14">
-        <v>1.0595577405990739</v>
-      </c>
-      <c r="N65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O65" s="14">
-        <v>1.017490664523153</v>
-      </c>
-      <c r="P65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R65" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S65" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="14">
-        <v>4.2808219178082192</v>
-      </c>
-      <c r="E66" s="14">
-        <v>6.6834197722290547</v>
-      </c>
-      <c r="F66" s="14">
-        <v>6.1864343866768952</v>
-      </c>
-      <c r="G66" s="14">
-        <v>14.513261492688946</v>
-      </c>
-      <c r="H66" s="14">
-        <v>4.349669968791118</v>
-      </c>
-      <c r="I66" s="14">
-        <v>4.5012097001069034</v>
-      </c>
-      <c r="J66" s="14">
-        <v>6.8756875687568755</v>
-      </c>
-      <c r="K66" s="14">
-        <v>3.4132799344650255</v>
-      </c>
-      <c r="L66" s="14">
-        <v>3.4866693010390271</v>
-      </c>
-      <c r="M66" s="14">
-        <v>5.7131104458511395</v>
-      </c>
-      <c r="N66" s="14">
-        <v>4.5307809933737326</v>
-      </c>
-      <c r="O66" s="14">
-        <v>3.3384522935167258</v>
-      </c>
-      <c r="P66" s="14">
-        <v>4.2056123897341005</v>
-      </c>
-      <c r="Q66" s="14">
-        <v>2.1416257080749999</v>
-      </c>
-      <c r="R66" s="32">
-        <v>4.5210000452100001</v>
-      </c>
-      <c r="S66" s="32">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67" s="14">
-        <v>5.2642661612971153</v>
-      </c>
-      <c r="E67" s="14">
-        <v>7.5987841945288759</v>
-      </c>
-      <c r="F67" s="14">
-        <v>2.6184179518734778</v>
-      </c>
-      <c r="G67" s="14">
-        <v>7.9007663743383105</v>
-      </c>
-      <c r="H67" s="14">
-        <v>2.6298487836949378</v>
-      </c>
-      <c r="I67" s="14">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="J67" s="14">
-        <v>8.1579376733561766</v>
-      </c>
-      <c r="K67" s="14">
-        <v>5.178932104200114</v>
-      </c>
-      <c r="L67" s="14">
-        <v>2.5128785023244129</v>
-      </c>
-      <c r="M67" s="14">
-        <v>2.4922739507526668</v>
-      </c>
-      <c r="N67" s="14">
-        <v>7.657554177195804</v>
-      </c>
-      <c r="O67" s="14">
-        <v>2.6174584478471403</v>
-      </c>
-      <c r="P67" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q67" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R67" s="32">
-        <v>5.0820755196422223</v>
-      </c>
-      <c r="S67" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
-      <c r="A68" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="R68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S68" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="13">
+      <c r="D68" s="13">
         <v>10.29230135858378</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E68" s="13">
         <v>15.067048365225252</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F68" s="13">
         <v>5.0231062889290738</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G68" s="13">
         <v>15.020277374455516</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H68" s="13">
         <v>5.0370221125270733</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I68" s="13">
         <v>5.2002080083203328</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J68" s="13">
         <v>16.258400173422938</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K68" s="13">
         <v>10.437868587234487</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L68" s="13">
         <v>4.948045522018802</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M68" s="13">
         <v>5.0880227943421188</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N68" s="13">
         <v>16.13510460926155</v>
       </c>
-      <c r="O69" s="13">
+      <c r="O68" s="13">
         <v>5.567308762943993</v>
       </c>
-      <c r="P69" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q69" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="R69" s="13">
+      <c r="P68" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R68" s="13">
         <v>10.6</v>
       </c>
-      <c r="S69" s="13">
+      <c r="S68" s="13">
         <v>10.8</v>
+      </c>
+      <c r="T68" s="13">
+        <v>20.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="D37:P37"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
